--- a/EventManifest.xlsx
+++ b/EventManifest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\WPI-MW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CDFBE5-239D-408F-8FCD-CBCFBCF8DB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5942696-F886-444B-B6DA-9CEE55B31DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="615" windowWidth="26415" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EventManifest" sheetId="1" r:id="rId1"/>
@@ -6255,11 +6255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:N686"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A694" sqref="A694"/>
@@ -6326,7 +6325,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1201</v>
       </c>
@@ -6352,7 +6351,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1201</v>
       </c>
@@ -6378,7 +6377,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1201</v>
       </c>
@@ -6404,7 +6403,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>580</v>
       </c>
@@ -6430,7 +6429,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>580</v>
       </c>
@@ -6456,7 +6455,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>580</v>
       </c>
@@ -6482,7 +6481,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1624</v>
       </c>
@@ -6523,7 +6522,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1620</v>
       </c>
@@ -6564,7 +6563,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1729</v>
       </c>
@@ -6593,7 +6592,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1729</v>
       </c>
@@ -6622,7 +6621,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1729</v>
       </c>
@@ -6651,7 +6650,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1729</v>
       </c>
@@ -6680,7 +6679,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1729</v>
       </c>
@@ -6709,7 +6708,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1729</v>
       </c>
@@ -6738,7 +6737,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1729</v>
       </c>
@@ -6767,7 +6766,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1729</v>
       </c>
@@ -6796,7 +6795,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1729</v>
       </c>
@@ -6825,7 +6824,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1664</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1640</v>
       </c>
@@ -6907,7 +6906,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1713</v>
       </c>
@@ -6948,7 +6947,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1721</v>
       </c>
@@ -6992,7 +6991,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1709</v>
       </c>
@@ -7033,7 +7032,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1717</v>
       </c>
@@ -7074,7 +7073,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1729</v>
       </c>
@@ -7103,7 +7102,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1725</v>
       </c>
@@ -7147,7 +7146,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1681</v>
       </c>
@@ -7188,7 +7187,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1677</v>
       </c>
@@ -7232,7 +7231,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1644</v>
       </c>
@@ -7317,7 +7316,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1616</v>
       </c>
@@ -7358,7 +7357,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1685</v>
       </c>
@@ -7402,7 +7401,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1772</v>
       </c>
@@ -7440,7 +7439,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1632</v>
       </c>
@@ -7481,7 +7480,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1670</v>
       </c>
@@ -7525,7 +7524,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1770</v>
       </c>
@@ -7560,7 +7559,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1770</v>
       </c>
@@ -7595,7 +7594,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1693</v>
       </c>
@@ -7636,7 +7635,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1705</v>
       </c>
@@ -7677,7 +7676,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1697</v>
       </c>
@@ -7721,7 +7720,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1769</v>
       </c>
@@ -7756,7 +7755,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1701</v>
       </c>
@@ -7797,7 +7796,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1729</v>
       </c>
@@ -7826,7 +7825,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1729</v>
       </c>
@@ -7855,7 +7854,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1660</v>
       </c>
@@ -7896,7 +7895,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1729</v>
       </c>
@@ -7925,7 +7924,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1729</v>
       </c>
@@ -7954,7 +7953,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1636</v>
       </c>
@@ -7995,7 +7994,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1689</v>
       </c>
@@ -8036,7 +8035,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1689</v>
       </c>
@@ -8077,7 +8076,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1628</v>
       </c>
@@ -8118,7 +8117,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1628</v>
       </c>
@@ -8159,7 +8158,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1518</v>
       </c>
@@ -8200,7 +8199,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1522</v>
       </c>
@@ -8229,7 +8228,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1525</v>
       </c>
@@ -8258,7 +8257,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1525</v>
       </c>
@@ -8287,7 +8286,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1525</v>
       </c>
@@ -8316,7 +8315,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1525</v>
       </c>
@@ -8345,7 +8344,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1525</v>
       </c>
@@ -8374,7 +8373,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1525</v>
       </c>
@@ -8403,7 +8402,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1525</v>
       </c>
@@ -8432,7 +8431,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1525</v>
       </c>
@@ -8461,7 +8460,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1525</v>
       </c>
@@ -8490,7 +8489,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1525</v>
       </c>
@@ -8519,7 +8518,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1525</v>
       </c>
@@ -8548,7 +8547,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1755</v>
       </c>
@@ -8589,7 +8588,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1542</v>
       </c>
@@ -8633,7 +8632,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1648</v>
       </c>
@@ -8662,7 +8661,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1648</v>
       </c>
@@ -8691,7 +8690,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1648</v>
       </c>
@@ -8720,7 +8719,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1648</v>
       </c>
@@ -8749,7 +8748,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1648</v>
       </c>
@@ -8778,7 +8777,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1648</v>
       </c>
@@ -8807,7 +8806,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1648</v>
       </c>
@@ -8836,7 +8835,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="75" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1648</v>
       </c>
@@ -8865,7 +8864,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1648</v>
       </c>
@@ -8894,7 +8893,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="77" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1648</v>
       </c>
@@ -8923,7 +8922,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1754</v>
       </c>
@@ -8961,7 +8960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1522</v>
       </c>
@@ -8987,7 +8986,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1547</v>
       </c>
@@ -9028,7 +9027,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1522</v>
       </c>
@@ -9054,7 +9053,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="82" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1552</v>
       </c>
@@ -9098,7 +9097,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1552</v>
       </c>
@@ -9142,7 +9141,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="84" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1522</v>
       </c>
@@ -9168,7 +9167,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1756</v>
       </c>
@@ -9212,7 +9211,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="86" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1613</v>
       </c>
@@ -9256,7 +9255,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1560</v>
       </c>
@@ -9297,7 +9296,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1564</v>
       </c>
@@ -9338,7 +9337,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1522</v>
       </c>
@@ -9364,7 +9363,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1569</v>
       </c>
@@ -9405,7 +9404,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1569</v>
       </c>
@@ -9446,7 +9445,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1573</v>
       </c>
@@ -9490,7 +9489,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1522</v>
       </c>
@@ -9516,7 +9515,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1578</v>
       </c>
@@ -9560,7 +9559,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="95" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1522</v>
       </c>
@@ -9586,7 +9585,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>522</v>
       </c>
@@ -9612,7 +9611,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1605</v>
       </c>
@@ -9653,7 +9652,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1583</v>
       </c>
@@ -9697,7 +9696,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1522</v>
       </c>
@@ -9723,7 +9722,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1588</v>
       </c>
@@ -9767,7 +9766,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1605</v>
       </c>
@@ -9811,7 +9810,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1473</v>
       </c>
@@ -9852,7 +9851,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1522</v>
       </c>
@@ -9878,7 +9877,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1477</v>
       </c>
@@ -9919,7 +9918,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="105" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1481</v>
       </c>
@@ -9960,7 +9959,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1485</v>
       </c>
@@ -10004,7 +10003,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1522</v>
       </c>
@@ -10030,7 +10029,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="108" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1753</v>
       </c>
@@ -10071,7 +10070,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1492</v>
       </c>
@@ -10112,7 +10111,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1496</v>
       </c>
@@ -10156,7 +10155,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1496</v>
       </c>
@@ -10200,7 +10199,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1502</v>
       </c>
@@ -10241,7 +10240,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1502</v>
       </c>
@@ -10282,7 +10281,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1506</v>
       </c>
@@ -10323,7 +10322,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1506</v>
       </c>
@@ -10364,7 +10363,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1510</v>
       </c>
@@ -10405,7 +10404,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1079</v>
       </c>
@@ -10434,7 +10433,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1444</v>
       </c>
@@ -10475,7 +10474,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>203</v>
       </c>
@@ -10504,7 +10503,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="120" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>203</v>
       </c>
@@ -10533,7 +10532,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>203</v>
       </c>
@@ -10562,7 +10561,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>203</v>
       </c>
@@ -10591,7 +10590,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="123" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>203</v>
       </c>
@@ -10620,7 +10619,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>203</v>
       </c>
@@ -10649,7 +10648,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>203</v>
       </c>
@@ -10678,7 +10677,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>203</v>
       </c>
@@ -10707,7 +10706,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>203</v>
       </c>
@@ -10736,7 +10735,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>203</v>
       </c>
@@ -10765,7 +10764,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>203</v>
       </c>
@@ -10794,7 +10793,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>203</v>
       </c>
@@ -10823,7 +10822,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>203</v>
       </c>
@@ -10852,7 +10851,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>203</v>
       </c>
@@ -10881,7 +10880,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>203</v>
       </c>
@@ -10910,7 +10909,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>203</v>
       </c>
@@ -10939,7 +10938,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>203</v>
       </c>
@@ -10971,7 +10970,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>540</v>
       </c>
@@ -11015,7 +11014,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>540</v>
       </c>
@@ -11059,7 +11058,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>254</v>
       </c>
@@ -11100,7 +11099,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="139" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1079</v>
       </c>
@@ -11129,7 +11128,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>475</v>
       </c>
@@ -11170,7 +11169,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1079</v>
       </c>
@@ -11199,7 +11198,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1079</v>
       </c>
@@ -11228,7 +11227,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1448</v>
       </c>
@@ -11269,7 +11268,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>329</v>
       </c>
@@ -11310,7 +11309,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1079</v>
       </c>
@@ -11339,7 +11338,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>658</v>
       </c>
@@ -11380,7 +11379,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1437</v>
       </c>
@@ -11421,7 +11420,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>759</v>
       </c>
@@ -11462,7 +11461,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1079</v>
       </c>
@@ -11491,7 +11490,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="150" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1079</v>
       </c>
@@ -11520,7 +11519,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1434</v>
       </c>
@@ -11564,7 +11563,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>394</v>
       </c>
@@ -11605,7 +11604,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1079</v>
       </c>
@@ -11634,7 +11633,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1434</v>
       </c>
@@ -11678,7 +11677,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>422</v>
       </c>
@@ -11722,7 +11721,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>572</v>
       </c>
@@ -11766,7 +11765,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="157" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1079</v>
       </c>
@@ -11795,7 +11794,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>384</v>
       </c>
@@ -11836,7 +11835,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="159" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>384</v>
       </c>
@@ -11877,7 +11876,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="160" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>333</v>
       </c>
@@ -11921,7 +11920,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="161" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>804</v>
       </c>
@@ -11965,7 +11964,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="162" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>804</v>
       </c>
@@ -12009,7 +12008,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="163" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1079</v>
       </c>
@@ -12038,7 +12037,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="164" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1239</v>
       </c>
@@ -12082,7 +12081,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="165" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1239</v>
       </c>
@@ -12126,7 +12125,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="166" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1149</v>
       </c>
@@ -12170,7 +12169,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="167" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1149</v>
       </c>
@@ -12214,7 +12213,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="168" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1304</v>
       </c>
@@ -12255,7 +12254,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="169" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1398</v>
       </c>
@@ -12299,7 +12298,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="170" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1398</v>
       </c>
@@ -12343,7 +12342,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="171" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>643</v>
       </c>
@@ -12384,7 +12383,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="172" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1067</v>
       </c>
@@ -12413,7 +12412,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="173" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>427</v>
       </c>
@@ -12454,7 +12453,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="174" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>189</v>
       </c>
@@ -12483,7 +12482,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="175" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>189</v>
       </c>
@@ -12512,7 +12511,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="176" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>189</v>
       </c>
@@ -12541,7 +12540,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="177" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>189</v>
       </c>
@@ -12570,7 +12569,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="178" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>189</v>
       </c>
@@ -12599,7 +12598,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="179" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>189</v>
       </c>
@@ -12628,7 +12627,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="180" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>189</v>
       </c>
@@ -12657,7 +12656,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="181" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>189</v>
       </c>
@@ -12686,7 +12685,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="182" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>189</v>
       </c>
@@ -12715,7 +12714,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="183" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>189</v>
       </c>
@@ -12744,7 +12743,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="184" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>189</v>
       </c>
@@ -12773,7 +12772,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="185" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>553</v>
       </c>
@@ -12814,7 +12813,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="186" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>553</v>
       </c>
@@ -12855,7 +12854,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="187" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>417</v>
       </c>
@@ -12896,7 +12895,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="188" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>417</v>
       </c>
@@ -12937,7 +12936,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="189" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>313</v>
       </c>
@@ -12978,7 +12977,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="190" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>313</v>
       </c>
@@ -13019,7 +13018,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="191" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>313</v>
       </c>
@@ -13060,7 +13059,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="192" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>313</v>
       </c>
@@ -13098,7 +13097,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1067</v>
       </c>
@@ -13127,7 +13126,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="194" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>799</v>
       </c>
@@ -13165,7 +13164,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="195" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>799</v>
       </c>
@@ -13203,7 +13202,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="196" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>717</v>
       </c>
@@ -13244,7 +13243,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="197" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>259</v>
       </c>
@@ -13285,7 +13284,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="198" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>259</v>
       </c>
@@ -13326,7 +13325,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="199" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>277</v>
       </c>
@@ -13370,7 +13369,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="200" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>277</v>
       </c>
@@ -13414,7 +13413,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="201" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1067</v>
       </c>
@@ -13443,7 +13442,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="202" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>431</v>
       </c>
@@ -13487,7 +13486,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="203" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>431</v>
       </c>
@@ -13531,7 +13530,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="204" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>431</v>
       </c>
@@ -13575,7 +13574,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="205" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1067</v>
       </c>
@@ -13604,7 +13603,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="206" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1220</v>
       </c>
@@ -13642,7 +13641,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="207" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1220</v>
       </c>
@@ -13680,7 +13679,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="208" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1067</v>
       </c>
@@ -13709,7 +13708,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="209" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1095</v>
       </c>
@@ -13750,7 +13749,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="210" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1095</v>
       </c>
@@ -13791,7 +13790,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="211" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1067</v>
       </c>
@@ -13820,7 +13819,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="212" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1239</v>
       </c>
@@ -13861,7 +13860,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="213" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1067</v>
       </c>
@@ -13890,7 +13889,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="214" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>457</v>
       </c>
@@ -13934,7 +13933,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="215" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>457</v>
       </c>
@@ -13978,7 +13977,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="216" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1067</v>
       </c>
@@ -14007,7 +14006,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="217" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>485</v>
       </c>
@@ -14051,7 +14050,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="218" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>485</v>
       </c>
@@ -14095,7 +14094,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="219" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>879</v>
       </c>
@@ -14136,7 +14135,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="220" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>879</v>
       </c>
@@ -14177,7 +14176,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="221" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>824</v>
       </c>
@@ -14218,7 +14217,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="222" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>824</v>
       </c>
@@ -14259,7 +14258,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="223" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1327</v>
       </c>
@@ -14291,7 +14290,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="224" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1067</v>
       </c>
@@ -14320,7 +14319,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="225" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1330</v>
       </c>
@@ -14364,7 +14363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1067</v>
       </c>
@@ -14393,7 +14392,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="227" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>491</v>
       </c>
@@ -14434,7 +14433,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="228" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>491</v>
       </c>
@@ -14475,7 +14474,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="229" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>584</v>
       </c>
@@ -14516,7 +14515,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="230" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>584</v>
       </c>
@@ -14557,7 +14556,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="231" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>607</v>
       </c>
@@ -14580,7 +14579,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="232" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>625</v>
       </c>
@@ -14606,7 +14605,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="233" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1308</v>
       </c>
@@ -14635,7 +14634,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="234" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1308</v>
       </c>
@@ -14676,7 +14675,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="235" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1308</v>
       </c>
@@ -14717,7 +14716,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="236" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1233</v>
       </c>
@@ -14758,7 +14757,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="237" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1233</v>
       </c>
@@ -14799,7 +14798,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="238" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>603</v>
       </c>
@@ -14840,7 +14839,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="239" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>777</v>
       </c>
@@ -14881,7 +14880,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="240" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>777</v>
       </c>
@@ -14922,7 +14921,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1023</v>
       </c>
@@ -14951,7 +14950,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>169</v>
       </c>
@@ -14980,7 +14979,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>169</v>
       </c>
@@ -15009,7 +15008,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>169</v>
       </c>
@@ -15038,7 +15037,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>169</v>
       </c>
@@ -15067,7 +15066,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>169</v>
       </c>
@@ -15096,7 +15095,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>169</v>
       </c>
@@ -15125,7 +15124,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>169</v>
       </c>
@@ -15154,7 +15153,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>169</v>
       </c>
@@ -15183,7 +15182,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>169</v>
       </c>
@@ -15212,7 +15211,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>169</v>
       </c>
@@ -15241,7 +15240,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>169</v>
       </c>
@@ -15270,7 +15269,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>169</v>
       </c>
@@ -15299,7 +15298,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>169</v>
       </c>
@@ -15328,7 +15327,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>169</v>
       </c>
@@ -15357,7 +15356,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>169</v>
       </c>
@@ -15386,7 +15385,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="257" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1035</v>
       </c>
@@ -15415,7 +15414,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="258" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>865</v>
       </c>
@@ -15456,7 +15455,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="259" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1035</v>
       </c>
@@ -15485,7 +15484,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="260" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1023</v>
       </c>
@@ -15514,7 +15513,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="261" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>903</v>
       </c>
@@ -15537,7 +15536,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="262" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>787</v>
       </c>
@@ -15560,7 +15559,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="263" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1035</v>
       </c>
@@ -15589,7 +15588,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="264" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1023</v>
       </c>
@@ -15618,7 +15617,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="265" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1035</v>
       </c>
@@ -15647,7 +15646,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="266" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1422</v>
       </c>
@@ -15691,7 +15690,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="267" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1023</v>
       </c>
@@ -15720,7 +15719,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="268" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1035</v>
       </c>
@@ -15749,7 +15748,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="269" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1023</v>
       </c>
@@ -15778,7 +15777,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="270" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1110</v>
       </c>
@@ -15822,7 +15821,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="271" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1110</v>
       </c>
@@ -15845,7 +15844,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="272" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1035</v>
       </c>
@@ -15874,7 +15873,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="273" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>266</v>
       </c>
@@ -15918,7 +15917,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="274" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1110</v>
       </c>
@@ -15941,7 +15940,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="275" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1035</v>
       </c>
@@ -15970,7 +15969,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="276" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1023</v>
       </c>
@@ -15999,7 +15998,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="277" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1016</v>
       </c>
@@ -16028,7 +16027,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="278" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1035</v>
       </c>
@@ -16057,7 +16056,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="279" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1035</v>
       </c>
@@ -16086,7 +16085,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="280" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1023</v>
       </c>
@@ -16115,7 +16114,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="281" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1016</v>
       </c>
@@ -16144,7 +16143,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="282" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1160</v>
       </c>
@@ -16188,7 +16187,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="283" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1160</v>
       </c>
@@ -16232,7 +16231,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="284" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1035</v>
       </c>
@@ -16261,7 +16260,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="285" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>485</v>
       </c>
@@ -16305,7 +16304,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="286" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1330</v>
       </c>
@@ -16349,7 +16348,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="287" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>748</v>
       </c>
@@ -16393,7 +16392,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="288" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>748</v>
       </c>
@@ -16437,7 +16436,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="289" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>748</v>
       </c>
@@ -16460,7 +16459,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="290" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>748</v>
       </c>
@@ -16483,7 +16482,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="291" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>287</v>
       </c>
@@ -16506,7 +16505,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1035</v>
       </c>
@@ -16535,7 +16534,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>232</v>
       </c>
@@ -16579,7 +16578,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1023</v>
       </c>
@@ -16608,7 +16607,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1016</v>
       </c>
@@ -16637,7 +16636,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>485</v>
       </c>
@@ -16681,7 +16680,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1330</v>
       </c>
@@ -16725,7 +16724,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1035</v>
       </c>
@@ -16754,7 +16753,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1035</v>
       </c>
@@ -16783,7 +16782,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1035</v>
       </c>
@@ -16812,7 +16811,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>287</v>
       </c>
@@ -16853,7 +16852,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1035</v>
       </c>
@@ -16882,7 +16881,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1023</v>
       </c>
@@ -16911,7 +16910,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1016</v>
       </c>
@@ -16940,7 +16939,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1035</v>
       </c>
@@ -16969,7 +16968,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1035</v>
       </c>
@@ -16998,7 +16997,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1023</v>
       </c>
@@ -17027,7 +17026,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1016</v>
       </c>
@@ -17056,7 +17055,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>360</v>
       </c>
@@ -17100,7 +17099,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1422</v>
       </c>
@@ -17141,7 +17140,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>266</v>
       </c>
@@ -17185,7 +17184,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>287</v>
       </c>
@@ -17226,7 +17225,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>748</v>
       </c>
@@ -17270,7 +17269,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1160</v>
       </c>
@@ -17314,7 +17313,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1035</v>
       </c>
@@ -17343,7 +17342,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="316" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>777</v>
       </c>
@@ -17366,7 +17365,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="317" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>360</v>
       </c>
@@ -17389,7 +17388,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="318" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1035</v>
       </c>
@@ -17418,7 +17417,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="319" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>666</v>
       </c>
@@ -17441,7 +17440,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="320" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>666</v>
       </c>
@@ -17464,7 +17463,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="321" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1035</v>
       </c>
@@ -17493,7 +17492,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="322" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>607</v>
       </c>
@@ -17516,7 +17515,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="323" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>607</v>
       </c>
@@ -17539,7 +17538,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="324" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>445</v>
       </c>
@@ -17580,7 +17579,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="325" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>607</v>
       </c>
@@ -17603,7 +17602,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="326" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>607</v>
       </c>
@@ -17626,7 +17625,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="327" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>662</v>
       </c>
@@ -17652,7 +17651,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="328" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>445</v>
       </c>
@@ -17678,7 +17677,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="329" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>445</v>
       </c>
@@ -17701,7 +17700,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="330" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>453</v>
       </c>
@@ -17742,7 +17741,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="331" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>980</v>
       </c>
@@ -17771,7 +17770,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="332" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>816</v>
       </c>
@@ -17794,7 +17793,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="333" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>148</v>
       </c>
@@ -17823,7 +17822,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="334" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>148</v>
       </c>
@@ -17852,7 +17851,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="335" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>148</v>
       </c>
@@ -17881,7 +17880,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="336" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>148</v>
       </c>
@@ -17910,7 +17909,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="337" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>148</v>
       </c>
@@ -17939,7 +17938,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="338" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>148</v>
       </c>
@@ -17968,7 +17967,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="339" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>148</v>
       </c>
@@ -17997,7 +17996,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="340" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>148</v>
       </c>
@@ -18026,7 +18025,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="341" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>148</v>
       </c>
@@ -18055,7 +18054,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="342" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>148</v>
       </c>
@@ -18084,7 +18083,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="343" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>148</v>
       </c>
@@ -18113,7 +18112,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="344" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>148</v>
       </c>
@@ -18142,7 +18141,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="345" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>148</v>
       </c>
@@ -18171,7 +18170,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="346" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>496</v>
       </c>
@@ -18212,7 +18211,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="347" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>471</v>
       </c>
@@ -18250,7 +18249,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="348" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>980</v>
       </c>
@@ -18279,7 +18278,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="349" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>731</v>
       </c>
@@ -18317,7 +18316,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="350" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>686</v>
       </c>
@@ -18340,7 +18339,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="351" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>501</v>
       </c>
@@ -18378,7 +18377,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="352" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>980</v>
       </c>
@@ -18407,7 +18406,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="353" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>707</v>
       </c>
@@ -18445,7 +18444,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="354" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1126</v>
       </c>
@@ -18483,7 +18482,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="355" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>710</v>
       </c>
@@ -18524,7 +18523,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="356" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>980</v>
       </c>
@@ -18553,7 +18552,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="357" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>519</v>
       </c>
@@ -18597,7 +18596,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="358" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1141</v>
       </c>
@@ -18638,7 +18637,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="359" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>980</v>
       </c>
@@ -18667,7 +18666,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="360" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1316</v>
       </c>
@@ -18711,7 +18710,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="361" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>283</v>
       </c>
@@ -18755,7 +18754,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="362" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>980</v>
       </c>
@@ -18784,7 +18783,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="363" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>725</v>
       </c>
@@ -18828,7 +18827,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="364" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>725</v>
       </c>
@@ -18872,7 +18871,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="365" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>980</v>
       </c>
@@ -18901,7 +18900,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="366" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>436</v>
       </c>
@@ -18930,7 +18929,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="367" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>676</v>
       </c>
@@ -18974,7 +18973,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="368" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>980</v>
       </c>
@@ -19003,7 +19002,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="369" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>679</v>
       </c>
@@ -19047,7 +19046,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="370" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>544</v>
       </c>
@@ -19091,7 +19090,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="371" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>544</v>
       </c>
@@ -19135,7 +19134,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="372" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>980</v>
       </c>
@@ -19164,7 +19163,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="373" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>830</v>
       </c>
@@ -19205,7 +19204,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="374" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>980</v>
       </c>
@@ -19234,7 +19233,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="375" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>873</v>
       </c>
@@ -19275,7 +19274,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="376" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>298</v>
       </c>
@@ -19316,7 +19315,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="377" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>298</v>
       </c>
@@ -19357,7 +19356,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="378" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>968</v>
       </c>
@@ -19386,7 +19385,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="379" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>810</v>
       </c>
@@ -19412,7 +19411,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="380" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>810</v>
       </c>
@@ -19435,7 +19434,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="381" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>834</v>
       </c>
@@ -19476,7 +19475,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="382" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>134</v>
       </c>
@@ -19505,7 +19504,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="383" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>134</v>
       </c>
@@ -19534,7 +19533,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="384" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>134</v>
       </c>
@@ -19563,7 +19562,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="385" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>134</v>
       </c>
@@ -19592,7 +19591,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="386" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>134</v>
       </c>
@@ -19621,7 +19620,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="387" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>134</v>
       </c>
@@ -19650,7 +19649,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="388" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>134</v>
       </c>
@@ -19679,7 +19678,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="389" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>134</v>
       </c>
@@ -19708,7 +19707,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="390" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>134</v>
       </c>
@@ -19737,7 +19736,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="391" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>134</v>
       </c>
@@ -19766,7 +19765,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="392" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>134</v>
       </c>
@@ -19795,7 +19794,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="393" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>764</v>
       </c>
@@ -19836,7 +19835,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="394" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>968</v>
       </c>
@@ -19865,7 +19864,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="395" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>837</v>
       </c>
@@ -19997,7 +19996,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="398" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>305</v>
       </c>
@@ -20041,7 +20040,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="399" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>841</v>
       </c>
@@ -20082,7 +20081,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="400" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1210</v>
       </c>
@@ -20105,7 +20104,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="401" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1214</v>
       </c>
@@ -20146,7 +20145,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="402" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1214</v>
       </c>
@@ -20187,7 +20186,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="403" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>968</v>
       </c>
@@ -20216,7 +20215,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="404" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>309</v>
       </c>
@@ -20257,7 +20256,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="405" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>889</v>
       </c>
@@ -20301,7 +20300,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="406" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>889</v>
       </c>
@@ -20345,7 +20344,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="407" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>968</v>
       </c>
@@ -20374,7 +20373,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="408" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>536</v>
       </c>
@@ -20415,7 +20414,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="409" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>968</v>
       </c>
@@ -20444,7 +20443,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="410" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1137</v>
       </c>
@@ -20485,7 +20484,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="411" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>245</v>
       </c>
@@ -20529,7 +20528,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="412" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1229</v>
       </c>
@@ -20570,7 +20569,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="413" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>968</v>
       </c>
@@ -20599,7 +20598,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="414" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>647</v>
       </c>
@@ -20640,7 +20639,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="415" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>647</v>
       </c>
@@ -20681,7 +20680,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="416" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>968</v>
       </c>
@@ -20710,7 +20709,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="417" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>968</v>
       </c>
@@ -20739,7 +20738,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="418" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>845</v>
       </c>
@@ -20780,7 +20779,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="419" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>869</v>
       </c>
@@ -20821,7 +20820,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="420" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>968</v>
       </c>
@@ -20850,7 +20849,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="421" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>403</v>
       </c>
@@ -20891,7 +20890,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="422" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>403</v>
       </c>
@@ -20932,7 +20931,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="423" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>508</v>
       </c>
@@ -20973,7 +20972,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="424" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1117</v>
       </c>
@@ -21014,7 +21013,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="425" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>370</v>
       </c>
@@ -21055,7 +21054,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="426" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>370</v>
       </c>
@@ -21096,7 +21095,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="427" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>370</v>
       </c>
@@ -21137,7 +21136,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="428" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>968</v>
       </c>
@@ -21166,7 +21165,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="429" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>440</v>
       </c>
@@ -21207,7 +21206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="430" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>956</v>
       </c>
@@ -21236,7 +21235,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="431" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>120</v>
       </c>
@@ -21265,7 +21264,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="432" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>120</v>
       </c>
@@ -21294,7 +21293,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="433" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>783</v>
       </c>
@@ -21335,7 +21334,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="434" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>120</v>
       </c>
@@ -21364,7 +21363,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="435" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>120</v>
       </c>
@@ -21393,7 +21392,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="436" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>120</v>
       </c>
@@ -21422,7 +21421,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="437" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>120</v>
       </c>
@@ -21451,7 +21450,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="438" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>120</v>
       </c>
@@ -21480,7 +21479,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="439" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>120</v>
       </c>
@@ -21509,7 +21508,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="440" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>120</v>
       </c>
@@ -21538,7 +21537,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="441" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>120</v>
       </c>
@@ -21567,7 +21566,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="442" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>120</v>
       </c>
@@ -21596,7 +21595,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="443" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>409</v>
       </c>
@@ -21637,7 +21636,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="444" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1185</v>
       </c>
@@ -21678,7 +21677,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="445" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>956</v>
       </c>
@@ -21707,7 +21706,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="446" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>713</v>
       </c>
@@ -21748,7 +21747,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="447" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1173</v>
       </c>
@@ -21789,7 +21788,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="448" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1173</v>
       </c>
@@ -21830,7 +21829,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="449" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1179</v>
       </c>
@@ -21871,7 +21870,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="450" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>272</v>
       </c>
@@ -21915,7 +21914,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="451" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>956</v>
       </c>
@@ -21944,7 +21943,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="452" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>356</v>
       </c>
@@ -21988,7 +21987,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="453" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>595</v>
       </c>
@@ -22029,7 +22028,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="454" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>956</v>
       </c>
@@ -22058,7 +22057,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="455" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1349</v>
       </c>
@@ -22099,7 +22098,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="456" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>956</v>
       </c>
@@ -22128,7 +22127,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="457" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>690</v>
       </c>
@@ -22169,7 +22168,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="458" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>562</v>
       </c>
@@ -22213,7 +22212,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="459" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>629</v>
       </c>
@@ -22254,7 +22253,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="460" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>956</v>
       </c>
@@ -22283,7 +22282,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="461" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>956</v>
       </c>
@@ -22312,7 +22311,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="462" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>956</v>
       </c>
@@ -22341,7 +22340,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="463" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>522</v>
       </c>
@@ -22364,7 +22363,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="464" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>522</v>
       </c>
@@ -22387,7 +22386,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="465" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1193</v>
       </c>
@@ -22431,7 +22430,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="466" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1182</v>
       </c>
@@ -22460,7 +22459,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="467" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1246</v>
       </c>
@@ -22501,7 +22500,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="468" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>956</v>
       </c>
@@ -22530,7 +22529,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="469" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>633</v>
       </c>
@@ -22571,7 +22570,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="470" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>795</v>
       </c>
@@ -22612,7 +22611,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="471" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>956</v>
       </c>
@@ -22641,7 +22640,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="472" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>738</v>
       </c>
@@ -22685,7 +22684,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="473" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>738</v>
       </c>
@@ -22729,7 +22728,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="474" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>566</v>
       </c>
@@ -22773,7 +22772,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="475" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>566</v>
       </c>
@@ -22817,7 +22816,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="476" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>944</v>
       </c>
@@ -22846,7 +22845,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="477" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>944</v>
       </c>
@@ -22875,7 +22874,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="478" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>101</v>
       </c>
@@ -22904,7 +22903,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="479" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>101</v>
       </c>
@@ -22933,7 +22932,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="480" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>101</v>
       </c>
@@ -22962,7 +22961,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="481" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>101</v>
       </c>
@@ -22991,7 +22990,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="482" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>101</v>
       </c>
@@ -23020,7 +23019,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="483" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>101</v>
       </c>
@@ -23049,7 +23048,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="484" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>101</v>
       </c>
@@ -23078,7 +23077,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="485" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>101</v>
       </c>
@@ -23107,7 +23106,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="486" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>101</v>
       </c>
@@ -23136,7 +23135,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="487" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>101</v>
       </c>
@@ -23165,7 +23164,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="488" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>101</v>
       </c>
@@ -23194,7 +23193,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="489" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>101</v>
       </c>
@@ -23223,7 +23222,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="490" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>101</v>
       </c>
@@ -23252,7 +23251,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="491" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>101</v>
       </c>
@@ -23281,7 +23280,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="492" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>101</v>
       </c>
@@ -23310,7 +23309,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="493" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>101</v>
       </c>
@@ -23339,7 +23338,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="494" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1412</v>
       </c>
@@ -23380,7 +23379,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="495" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>944</v>
       </c>
@@ -23409,7 +23408,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="496" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1250</v>
       </c>
@@ -23450,7 +23449,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="497" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1408</v>
       </c>
@@ -23491,7 +23490,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="498" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>618</v>
       </c>
@@ -23532,7 +23531,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="499" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>622</v>
       </c>
@@ -23573,7 +23572,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="500" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1129</v>
       </c>
@@ -23614,7 +23613,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="501" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>944</v>
       </c>
@@ -23643,7 +23642,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="502" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>682</v>
       </c>
@@ -23675,7 +23674,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="503" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>512</v>
       </c>
@@ -23716,7 +23715,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="504" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>512</v>
       </c>
@@ -23757,7 +23756,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="505" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>768</v>
       </c>
@@ -23798,7 +23797,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="506" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>772</v>
       </c>
@@ -23839,7 +23838,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="507" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>944</v>
       </c>
@@ -23868,7 +23867,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="508" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1254</v>
       </c>
@@ -23909,7 +23908,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="509" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>944</v>
       </c>
@@ -23938,7 +23937,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="510" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>944</v>
       </c>
@@ -23967,7 +23966,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="511" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1319</v>
       </c>
@@ -24008,7 +24007,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="512" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>944</v>
       </c>
@@ -24037,7 +24036,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="513" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>522</v>
       </c>
@@ -24060,7 +24059,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="514" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>504</v>
       </c>
@@ -24101,7 +24100,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="515" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>944</v>
       </c>
@@ -24130,7 +24129,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="516" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>899</v>
       </c>
@@ -24174,7 +24173,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="517" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>944</v>
       </c>
@@ -24203,7 +24202,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="518" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>911</v>
       </c>
@@ -24244,7 +24243,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="519" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1258</v>
       </c>
@@ -24285,7 +24284,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="520" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>589</v>
       </c>
@@ -24326,7 +24325,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="521" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>589</v>
       </c>
@@ -24367,7 +24366,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="522" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1121</v>
       </c>
@@ -24408,7 +24407,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="523" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1121</v>
       </c>
@@ -24449,7 +24448,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="524" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>699</v>
       </c>
@@ -24490,7 +24489,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="525" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>703</v>
       </c>
@@ -24531,7 +24530,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="526" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1262</v>
       </c>
@@ -24572,7 +24571,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="527" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>744</v>
       </c>
@@ -24616,7 +24615,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="528" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>915</v>
       </c>
@@ -24657,7 +24656,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="529" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>915</v>
       </c>
@@ -24698,7 +24697,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="530" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>820</v>
       </c>
@@ -24721,7 +24720,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="531" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1004</v>
       </c>
@@ -24750,7 +24749,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="532" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>82</v>
       </c>
@@ -24779,7 +24778,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="533" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>82</v>
       </c>
@@ -24808,7 +24807,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="534" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>82</v>
       </c>
@@ -24837,7 +24836,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="535" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>82</v>
       </c>
@@ -24866,7 +24865,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="536" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>82</v>
       </c>
@@ -24895,7 +24894,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="537" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>82</v>
       </c>
@@ -24924,7 +24923,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="538" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>82</v>
       </c>
@@ -24953,7 +24952,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="539" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>82</v>
       </c>
@@ -24982,7 +24981,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="540" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>82</v>
       </c>
@@ -25011,7 +25010,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="541" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>82</v>
       </c>
@@ -25040,7 +25039,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="542" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>82</v>
       </c>
@@ -25069,7 +25068,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="543" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>82</v>
       </c>
@@ -25098,7 +25097,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="544" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>82</v>
       </c>
@@ -25127,7 +25126,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="545" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>82</v>
       </c>
@@ -25156,7 +25155,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="546" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>82</v>
       </c>
@@ -25185,7 +25184,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="547" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>82</v>
       </c>
@@ -25214,7 +25213,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="548" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1004</v>
       </c>
@@ -25243,7 +25242,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="549" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>653</v>
       </c>
@@ -25284,7 +25283,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="550" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>672</v>
       </c>
@@ -25325,7 +25324,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="551" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1004</v>
       </c>
@@ -25354,7 +25353,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="552" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1268</v>
       </c>
@@ -25395,7 +25394,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="553" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1004</v>
       </c>
@@ -25424,7 +25423,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="554" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1342</v>
       </c>
@@ -25465,7 +25464,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="555" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>859</v>
       </c>
@@ -25506,7 +25505,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="556" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>859</v>
       </c>
@@ -25547,7 +25546,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="557" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1342</v>
       </c>
@@ -25588,7 +25587,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="558" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>461</v>
       </c>
@@ -25632,7 +25631,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="559" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>461</v>
       </c>
@@ -25676,7 +25675,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="560" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1612</v>
       </c>
@@ -25720,7 +25719,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="561" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1004</v>
       </c>
@@ -25749,7 +25748,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="562" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>734</v>
       </c>
@@ -25790,7 +25789,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="563" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1004</v>
       </c>
@@ -25819,7 +25818,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="564" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1004</v>
       </c>
@@ -25848,7 +25847,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="565" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1272</v>
       </c>
@@ -25889,7 +25888,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="566" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1004</v>
       </c>
@@ -25918,7 +25917,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="567" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>576</v>
       </c>
@@ -25956,7 +25955,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="568" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1004</v>
       </c>
@@ -25985,7 +25984,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="569" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1189</v>
       </c>
@@ -26026,7 +26025,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="570" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1362</v>
       </c>
@@ -26067,7 +26066,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="571" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1004</v>
       </c>
@@ -26096,7 +26095,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="572" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1100</v>
       </c>
@@ -26137,7 +26136,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="573" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>390</v>
       </c>
@@ -26178,7 +26177,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="574" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>558</v>
       </c>
@@ -26222,7 +26221,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="575" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1276</v>
       </c>
@@ -26263,7 +26262,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="576" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>479</v>
       </c>
@@ -26304,7 +26303,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="577" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>347</v>
       </c>
@@ -26345,7 +26344,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="578" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>352</v>
       </c>
@@ -26386,7 +26385,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="579" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>694</v>
       </c>
@@ -26427,7 +26426,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="580" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1334</v>
       </c>
@@ -26450,7 +26449,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="581" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1280</v>
       </c>
@@ -26491,7 +26490,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="582" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1280</v>
       </c>
@@ -26532,7 +26531,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="583" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1280</v>
       </c>
@@ -26570,7 +26569,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="584" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>522</v>
       </c>
@@ -26593,7 +26592,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="585" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>48</v>
       </c>
@@ -26622,7 +26621,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="586" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>48</v>
       </c>
@@ -26651,7 +26650,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="587" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>48</v>
       </c>
@@ -26680,7 +26679,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="588" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>48</v>
       </c>
@@ -26709,7 +26708,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="589" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>48</v>
       </c>
@@ -26738,7 +26737,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="590" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>48</v>
       </c>
@@ -26767,7 +26766,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="591" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>48</v>
       </c>
@@ -26796,7 +26795,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="592" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>48</v>
       </c>
@@ -26825,7 +26824,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="593" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>48</v>
       </c>
@@ -26854,7 +26853,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="594" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>48</v>
       </c>
@@ -26883,7 +26882,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="595" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>48</v>
       </c>
@@ -26912,7 +26911,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="596" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>48</v>
       </c>
@@ -26941,7 +26940,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="597" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>48</v>
       </c>
@@ -26970,7 +26969,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="598" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>48</v>
       </c>
@@ -26999,7 +26998,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="599" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>48</v>
       </c>
@@ -27028,7 +27027,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="600" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>48</v>
       </c>
@@ -27057,7 +27056,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="601" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1292</v>
       </c>
@@ -27098,7 +27097,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="602" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>992</v>
       </c>
@@ -27127,7 +27126,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="603" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>399</v>
       </c>
@@ -27168,7 +27167,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="604" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>992</v>
       </c>
@@ -27197,7 +27196,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="605" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>379</v>
       </c>
@@ -27238,7 +27237,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="606" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>992</v>
       </c>
@@ -27267,7 +27266,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="607" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>637</v>
       </c>
@@ -27308,7 +27307,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="608" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>637</v>
       </c>
@@ -27349,7 +27348,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="609" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>992</v>
       </c>
@@ -27378,7 +27377,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="610" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>294</v>
       </c>
@@ -27422,7 +27421,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="611" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>992</v>
       </c>
@@ -27451,7 +27450,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="612" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1296</v>
       </c>
@@ -27492,7 +27491,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="613" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>992</v>
       </c>
@@ -27521,7 +27520,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="614" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>549</v>
       </c>
@@ -27562,7 +27561,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="615" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>992</v>
       </c>
@@ -27591,7 +27590,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="616" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1144</v>
       </c>
@@ -27635,7 +27634,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="617" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1144</v>
       </c>
@@ -27679,7 +27678,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="618" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>992</v>
       </c>
@@ -27708,7 +27707,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="619" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1394</v>
       </c>
@@ -27749,7 +27748,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="620" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>366</v>
       </c>
@@ -27790,7 +27789,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="621" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>992</v>
       </c>
@@ -27819,7 +27818,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="622" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>852</v>
       </c>
@@ -27860,7 +27859,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="623" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>992</v>
       </c>
@@ -27889,7 +27888,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="624" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>721</v>
       </c>
@@ -27930,7 +27929,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="625" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>413</v>
       </c>
@@ -27974,7 +27973,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="626" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1197</v>
       </c>
@@ -28015,7 +28014,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="627" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1300</v>
       </c>
@@ -28059,7 +28058,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="628" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>791</v>
       </c>
@@ -28100,7 +28099,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="629" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1133</v>
       </c>
@@ -28141,7 +28140,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="630" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1353</v>
       </c>
@@ -28182,7 +28181,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="631" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>19</v>
       </c>
@@ -28211,7 +28210,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="632" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>19</v>
       </c>
@@ -28240,7 +28239,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="633" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>921</v>
       </c>
@@ -28269,7 +28268,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="634" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1357</v>
       </c>
@@ -28310,7 +28309,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="635" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1404</v>
       </c>
@@ -28351,7 +28350,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="636" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>921</v>
       </c>
@@ -28380,7 +28379,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="637" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1091</v>
       </c>
@@ -28424,7 +28423,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="638" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>19</v>
       </c>
@@ -28453,7 +28452,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="639" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>19</v>
       </c>
@@ -28482,7 +28481,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="640" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>19</v>
       </c>
@@ -28511,7 +28510,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="641" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>19</v>
       </c>
@@ -28540,7 +28539,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="642" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>19</v>
       </c>
@@ -28569,7 +28568,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="643" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>19</v>
       </c>
@@ -28598,7 +28597,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="644" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>19</v>
       </c>
@@ -28627,7 +28626,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="645" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>19</v>
       </c>
@@ -28656,7 +28655,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="646" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>19</v>
       </c>
@@ -28685,7 +28684,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="647" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>19</v>
       </c>
@@ -28714,7 +28713,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="648" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>19</v>
       </c>
@@ -28743,7 +28742,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="649" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1167</v>
       </c>
@@ -28784,7 +28783,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="650" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1167</v>
       </c>
@@ -28825,7 +28824,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="651" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>921</v>
       </c>
@@ -28854,7 +28853,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="652" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1104</v>
       </c>
@@ -28895,7 +28894,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="653" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>921</v>
       </c>
@@ -28924,7 +28923,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="654" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1104</v>
       </c>
@@ -28965,7 +28964,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="655" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1390</v>
       </c>
@@ -29006,7 +29005,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="656" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>599</v>
       </c>
@@ -29047,7 +29046,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="657" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>921</v>
       </c>
@@ -29076,7 +29075,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="658" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1366</v>
       </c>
@@ -29117,7 +29116,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="659" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1156</v>
       </c>
@@ -29161,7 +29160,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="660" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>921</v>
       </c>
@@ -29190,7 +29189,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="661" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>1323</v>
       </c>
@@ -29231,7 +29230,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="662" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>337</v>
       </c>
@@ -29275,7 +29274,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="663" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>921</v>
       </c>
@@ -29304,7 +29303,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="664" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>522</v>
       </c>
@@ -29327,7 +29326,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="665" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>921</v>
       </c>
@@ -29356,7 +29355,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="666" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>1370</v>
       </c>
@@ -29400,7 +29399,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="667" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>1225</v>
       </c>
@@ -29441,7 +29440,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="668" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>921</v>
       </c>
@@ -29470,7 +29469,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="669" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>1374</v>
       </c>
@@ -29511,7 +29510,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="670" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>238</v>
       </c>
@@ -29552,7 +29551,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="671" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>907</v>
       </c>
@@ -29593,7 +29592,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="672" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>921</v>
       </c>
@@ -29622,7 +29621,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="673" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>11</v>
       </c>
@@ -29645,7 +29644,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="674" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1378</v>
       </c>
@@ -29686,7 +29685,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="675" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1204</v>
       </c>
@@ -29727,7 +29726,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="676" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1204</v>
       </c>
@@ -29768,7 +29767,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="677" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>885</v>
       </c>
@@ -29812,7 +29811,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="678" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>325</v>
       </c>
@@ -29853,7 +29852,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="679" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>249</v>
       </c>
@@ -29897,7 +29896,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="680" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>1382</v>
       </c>
@@ -29938,7 +29937,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="681" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>467</v>
       </c>
@@ -29979,7 +29978,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="682" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>341</v>
       </c>
@@ -30020,7 +30019,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="683" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>1386</v>
       </c>
@@ -30064,7 +30063,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="684" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>895</v>
       </c>
@@ -30105,7 +30104,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="685" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>1338</v>
       </c>
@@ -30146,7 +30145,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="686" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>16</v>
       </c>
@@ -30167,14 +30166,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N686" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Yo-Yo Ma"/>
-        <filter val="Yo-Yo Ma 2pm"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N686" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
